--- a/unit_test_results_1_combined_generated_answers_VS.xlsx
+++ b/unit_test_results_1_combined_generated_answers_VS.xlsx
@@ -5,41 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishalsaxena/Documents/BERKMIDS2024ROOT/09MIDSCourses/MIDS266NLPDL/266_NLP_Final_Project/266_FP_Factory/04_Control_Group_LlamaLLM/Control_Group_TG_Comparison/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishalsaxena/Documents/BERKMIDS2024ROOT/09MIDSCourses/MIDS266NLPDL/266_NLP_Final_Project/266_FP_Github/266_fp_git_local/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F27904-D48D-2744-8A20-8E7F85D4C52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0236B8E-C2BD-CF40-983A-D0BD8A3319DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="1" activeTab="8" xr2:uid="{A56D0E42-55C6-ED4F-8954-A1036DD7774D}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="2" activeTab="4" xr2:uid="{A56D0E42-55C6-ED4F-8954-A1036DD7774D}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS" sheetId="9" r:id="rId1"/>
     <sheet name="SCORE.ANSWER.SET.1" sheetId="7" r:id="rId2"/>
-    <sheet name="SCORE.ANSWER.SET.2" sheetId="8" r:id="rId3"/>
-    <sheet name="SCORE.ANSWER.SET.3" sheetId="6" r:id="rId4"/>
-    <sheet name="REF" sheetId="4" r:id="rId5"/>
-    <sheet name="SCORE.ANSWER.SET.1 (2)" sheetId="10" r:id="rId6"/>
-    <sheet name="SCORE.ANSWER.SET.2 (2)" sheetId="11" r:id="rId7"/>
-    <sheet name="SCORE.ANSWER.SET.3 (2)" sheetId="12" r:id="rId8"/>
-    <sheet name="Chart1" sheetId="16" r:id="rId9"/>
-    <sheet name="Sheet14" sheetId="15" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId4"/>
+    <sheet name="SCORE.ANSWER.SET.2" sheetId="8" r:id="rId5"/>
+    <sheet name="SCORE.ANSWER.SET.3" sheetId="6" r:id="rId6"/>
+    <sheet name="REF" sheetId="4" r:id="rId7"/>
+    <sheet name="SCORE.ANSWER.SET.1 (2)" sheetId="10" r:id="rId8"/>
+    <sheet name="SCORE.ANSWER.SET.2 (2)" sheetId="11" r:id="rId9"/>
+    <sheet name="SCORE.ANSWER.SET.3 (2)" sheetId="12" r:id="rId10"/>
+    <sheet name="Chart1" sheetId="16" r:id="rId11"/>
+    <sheet name="Sheet14" sheetId="15" r:id="rId12"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet14!$B$4:$B$9</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet14!$C$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet14!$C$4:$C$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet14!$D$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet14!$D$4:$D$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet14!$E$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet14!$E$4:$E$9</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Sheet14!$D$3</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet14!$D$4:$D$9</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">Sheet14!$E$3</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">Sheet14!$E$4:$E$9</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet14!$B$4:$B$9</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet14!$C$3</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet14!$C$4:$C$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1563,12 +1549,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1590,6 +1570,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1599,9 +1583,11 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1670,11 +1656,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1708,11 +1690,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1746,11 +1724,109 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1792,11 +1868,49 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1830,6 +1944,21 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1849,11 +1978,71 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1887,11 +2076,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1925,6 +2110,21 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1944,11 +2144,75 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1990,11 +2254,51 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2028,6 +2332,21 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2047,11 +2366,71 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2085,11 +2464,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2123,6 +2498,21 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2142,11 +2532,75 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2188,11 +2642,51 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2226,6 +2720,21 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2242,6 +2751,51 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2623,7 +3177,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2653,7 +3211,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2683,7 +3245,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2713,6 +3279,135 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2738,7 +3433,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2765,6 +3464,59 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2810,772 +3562,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4802,7 +4788,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C467D7D7-C98F-B445-B6CB-44F84E75E331}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="144" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5166,32 +5152,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E653C8FE-1CAB-6C48-8C7E-68F55A52DAA0}" name="Table13456" displayName="Table13456" ref="A4:J28" totalsRowCount="1" headerRowDxfId="99" dataDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E653C8FE-1CAB-6C48-8C7E-68F55A52DAA0}" name="Table13456" displayName="Table13456" ref="A4:J28" totalsRowCount="1" headerRowDxfId="111" dataDxfId="110">
   <autoFilter ref="A4:J27" xr:uid="{0D9BD064-39D0-3A49-A8F6-DB46CDE5EF9C}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AF21780F-0EA8-A545-B60A-4F88D02DDDF0}" name="id" dataDxfId="97" totalsRowDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{A5E32A5C-8569-E942-AF67-CD7CE88DD0C7}" name="question" dataDxfId="96" totalsRowDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{CE8B7710-F5F9-BB47-8709-540E9D53FE7F}" name="passage" dataDxfId="95" totalsRowDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{24B30F64-749B-4349-B7BE-E96C59FBCB9A}" name="ANSWER_1" dataDxfId="77" totalsRowDxfId="72"/>
-    <tableColumn id="11" xr3:uid="{5C45F912-FAFD-B347-A4D7-89B8792093C4}" name="Your score for Relevance (see above)" dataDxfId="94" totalsRowDxfId="71"/>
-    <tableColumn id="12" xr3:uid="{B2E37310-6AF5-E949-AA5C-E51F87263872}" name="Your score for Factual Accuracy (see above)" dataDxfId="93" totalsRowDxfId="70"/>
-    <tableColumn id="13" xr3:uid="{2322E478-AE19-6247-A2CC-7355097AF06D}" name="Your score for Conciseness (see above)" dataDxfId="92" totalsRowDxfId="69"/>
-    <tableColumn id="14" xr3:uid="{6A10F5B2-5FF7-E24C-9AEE-5679C53499B1}" name="Your score for Fluency/Readability (see above)" dataDxfId="91" totalsRowDxfId="68"/>
-    <tableColumn id="15" xr3:uid="{C6F269FF-7489-4F47-862F-9B767813D96B}" name="Your score Adherence to Passage (see above)" dataDxfId="90" totalsRowDxfId="67"/>
-    <tableColumn id="16" xr3:uid="{27293F02-BB19-984C-AE76-C9684D21BF8A}" name="Your score for Completeness (see above)" dataDxfId="89" totalsRowDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{AF21780F-0EA8-A545-B60A-4F88D02DDDF0}" name="id" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{A5E32A5C-8569-E942-AF67-CD7CE88DD0C7}" name="question" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{CE8B7710-F5F9-BB47-8709-540E9D53FE7F}" name="passage" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{24B30F64-749B-4349-B7BE-E96C59FBCB9A}" name="ANSWER_1" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="11" xr3:uid="{5C45F912-FAFD-B347-A4D7-89B8792093C4}" name="Your score for Relevance (see above)" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="12" xr3:uid="{B2E37310-6AF5-E949-AA5C-E51F87263872}" name="Your score for Factual Accuracy (see above)" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="13" xr3:uid="{2322E478-AE19-6247-A2CC-7355097AF06D}" name="Your score for Conciseness (see above)" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="14" xr3:uid="{6A10F5B2-5FF7-E24C-9AEE-5679C53499B1}" name="Your score for Fluency/Readability (see above)" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="15" xr3:uid="{C6F269FF-7489-4F47-862F-9B767813D96B}" name="Your score Adherence to Passage (see above)" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="16" xr3:uid="{27293F02-BB19-984C-AE76-C9684D21BF8A}" name="Your score for Completeness (see above)" dataDxfId="91" totalsRowDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3F41F6D1-EAAC-4D4B-8F4A-D38DF4E057E6}" name="Table134567" displayName="Table134567" ref="A4:J27" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3F41F6D1-EAAC-4D4B-8F4A-D38DF4E057E6}" name="Table134567" displayName="Table134567" ref="A4:J27" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="A4:J27" xr:uid="{0D9BD064-39D0-3A49-A8F6-DB46CDE5EF9C}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E5CE8E7B-F9A8-0E44-ABF4-6FE78EE4B309}" name="id" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{2D3D6CAF-14C3-AA47-A048-4EABE2718F89}" name="question" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{5551F2A0-9952-7245-93C9-0BEC86CB31AA}" name="passage" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{2920E4A1-5367-9745-9FA1-C098092B290D}" name="ANSWER_2" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{E5CE8E7B-F9A8-0E44-ABF4-6FE78EE4B309}" name="id" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{2D3D6CAF-14C3-AA47-A048-4EABE2718F89}" name="question" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{5551F2A0-9952-7245-93C9-0BEC86CB31AA}" name="passage" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{2920E4A1-5367-9745-9FA1-C098092B290D}" name="ANSWER_2" dataDxfId="84"/>
     <tableColumn id="11" xr3:uid="{2C674EBF-9DF3-B740-A1F4-A0261A142DA5}" name="Your score for Relevance (see above)" dataDxfId="83"/>
     <tableColumn id="12" xr3:uid="{5265AEF7-48D5-7A41-8857-C7708EDEB5D6}" name="Your score for Factual Accuracy (see above)" dataDxfId="82"/>
     <tableColumn id="13" xr3:uid="{A8F84042-E03F-E747-BE1A-99114C17A13D}" name="Your score for Conciseness (see above)" dataDxfId="81"/>
@@ -5204,19 +5190,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0BE6793D-4E49-5145-ACA0-986E71C0DF45}" name="Table1345" displayName="Table1345" ref="A4:J27" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0BE6793D-4E49-5145-ACA0-986E71C0DF45}" name="Table1345" displayName="Table1345" ref="A4:J27" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="A4:J27" xr:uid="{0D9BD064-39D0-3A49-A8F6-DB46CDE5EF9C}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B48FDE87-8EEA-014A-89EC-9B8FD6D91AA0}" name="id" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{E00EF0B9-6008-7946-B16F-AC67ED4F0451}" name="question" dataDxfId="110"/>
-    <tableColumn id="3" xr3:uid="{2237DC0A-E29C-C84F-AB6A-7BCFE569AE4E}" name="passage" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{18E81C8F-7A53-C347-AEEA-ADD0580C177B}" name="ANSWER_3" dataDxfId="108"/>
-    <tableColumn id="11" xr3:uid="{78AF5C15-B7DE-EB4E-9BB0-D09A5A9D3841}" name="Your score for Relevance (see above)" dataDxfId="107"/>
-    <tableColumn id="12" xr3:uid="{FF199922-C57E-1D44-B017-12181B8DF65F}" name="Your score for Factual Accuracy (see above)" dataDxfId="106"/>
-    <tableColumn id="13" xr3:uid="{D6309B80-3CC7-9E4A-BA88-0D87ABB54C8B}" name="Your score for Conciseness (see above)" dataDxfId="105"/>
-    <tableColumn id="14" xr3:uid="{95FE0AF1-290E-B04A-BA78-5A8BD38C839E}" name="Your score for Fluency/Readability (see above)" dataDxfId="104"/>
-    <tableColumn id="15" xr3:uid="{9FD0F68E-1211-C541-A626-580364FE40F8}" name="Your score Adherence to Passage (see above)" dataDxfId="103"/>
-    <tableColumn id="16" xr3:uid="{91C4962B-FDAF-EB4C-9FC8-B6A683F4E246}" name="Your score for Completeness (see above)" dataDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{B48FDE87-8EEA-014A-89EC-9B8FD6D91AA0}" name="id" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{E00EF0B9-6008-7946-B16F-AC67ED4F0451}" name="question" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{2237DC0A-E29C-C84F-AB6A-7BCFE569AE4E}" name="passage" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{18E81C8F-7A53-C347-AEEA-ADD0580C177B}" name="ANSWER_3" dataDxfId="72"/>
+    <tableColumn id="11" xr3:uid="{78AF5C15-B7DE-EB4E-9BB0-D09A5A9D3841}" name="Your score for Relevance (see above)" dataDxfId="71"/>
+    <tableColumn id="12" xr3:uid="{FF199922-C57E-1D44-B017-12181B8DF65F}" name="Your score for Factual Accuracy (see above)" dataDxfId="70"/>
+    <tableColumn id="13" xr3:uid="{D6309B80-3CC7-9E4A-BA88-0D87ABB54C8B}" name="Your score for Conciseness (see above)" dataDxfId="69"/>
+    <tableColumn id="14" xr3:uid="{95FE0AF1-290E-B04A-BA78-5A8BD38C839E}" name="Your score for Fluency/Readability (see above)" dataDxfId="68"/>
+    <tableColumn id="15" xr3:uid="{9FD0F68E-1211-C541-A626-580364FE40F8}" name="Your score Adherence to Passage (see above)" dataDxfId="67"/>
+    <tableColumn id="16" xr3:uid="{91C4962B-FDAF-EB4C-9FC8-B6A683F4E246}" name="Your score for Completeness (see above)" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5226,26 +5212,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{79866BDB-95C9-904B-9323-F9B339B92851}" name="Table134568" displayName="Table134568" ref="A4:J28" totalsRowCount="1" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A4:J27" xr:uid="{0D9BD064-39D0-3A49-A8F6-DB46CDE5EF9C}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B7D352B2-D28E-EA45-BA92-CD294086A34F}" name="id" dataDxfId="63" totalsRowDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{DECA5037-4A1E-4347-A32A-40C9C8B78A98}" name="question" dataDxfId="62" totalsRowDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{755C0A37-A2AC-2244-858F-8FC40988FFD2}" name="passage" dataDxfId="61" totalsRowDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{506643B1-1AF0-134F-A858-CFFBC6D929F9}" name="ANSWER_1" dataDxfId="60" totalsRowDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{B09F4760-F7B1-104B-A1BE-009B57212A73}" name="Your score for Relevance (see above)" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="25">
+    <tableColumn id="1" xr3:uid="{B7D352B2-D28E-EA45-BA92-CD294086A34F}" name="id" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{DECA5037-4A1E-4347-A32A-40C9C8B78A98}" name="question" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{755C0A37-A2AC-2244-858F-8FC40988FFD2}" name="passage" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{506643B1-1AF0-134F-A858-CFFBC6D929F9}" name="ANSWER_1" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="11" xr3:uid="{B09F4760-F7B1-104B-A1BE-009B57212A73}" name="Your score for Relevance (see above)" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="54">
       <totalsRowFormula>AVERAGE(Table134568[Your score for Relevance (see above)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{779AE9BC-419F-DA4B-85C8-37A7EEE85B34}" name="Your score for Factual Accuracy (see above)" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="24">
+    <tableColumn id="12" xr3:uid="{779AE9BC-419F-DA4B-85C8-37A7EEE85B34}" name="Your score for Factual Accuracy (see above)" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="52">
       <totalsRowFormula>AVERAGE(Table134568[Your score for Factual Accuracy (see above)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{A4F1C0A0-DE77-BE4A-8F96-827DAE4E258C}" name="Your score for Conciseness (see above)" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="23">
+    <tableColumn id="13" xr3:uid="{A4F1C0A0-DE77-BE4A-8F96-827DAE4E258C}" name="Your score for Conciseness (see above)" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="50">
       <totalsRowFormula>AVERAGE(Table134568[Your score for Conciseness (see above)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{984A8398-86BD-FA44-8528-72EF7E89385D}" name="Your score for Fluency/Readability (see above)" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="22">
+    <tableColumn id="14" xr3:uid="{984A8398-86BD-FA44-8528-72EF7E89385D}" name="Your score for Fluency/Readability (see above)" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
       <totalsRowFormula>AVERAGE(Table134568[Your score for Fluency/Readability (see above)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B0783C56-E683-034D-BF56-DDEA2B765479}" name="Your score Adherence to Passage (see above)" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="21">
+    <tableColumn id="15" xr3:uid="{B0783C56-E683-034D-BF56-DDEA2B765479}" name="Your score Adherence to Passage (see above)" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
       <totalsRowFormula>AVERAGE(Table134568[Your score Adherence to Passage (see above)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2E5239C3-6F2B-254D-8B01-A0C865B120A2}" name="Your score for Completeness (see above)" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="20">
+    <tableColumn id="16" xr3:uid="{2E5239C3-6F2B-254D-8B01-A0C865B120A2}" name="Your score for Completeness (see above)" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
       <totalsRowFormula>AVERAGE(Table134568[Your score for Completeness (see above)])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -5254,29 +5240,29 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2C97B147-15BA-E34D-9814-11C24116B198}" name="Table1345679" displayName="Table1345679" ref="A4:J28" totalsRowCount="1" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2C97B147-15BA-E34D-9814-11C24116B198}" name="Table1345679" displayName="Table1345679" ref="A4:J28" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A4:J27" xr:uid="{0D9BD064-39D0-3A49-A8F6-DB46CDE5EF9C}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7B193506-FE5E-B049-A04B-8774CA7AFB0F}" name="id" dataDxfId="51" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{BE0FE50E-449A-5F42-802E-2FD9E011243A}" name="question" dataDxfId="50" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{80EE26CF-0F0B-B945-BB6F-18A3B76D6642}" name="passage" dataDxfId="49" totalsRowDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{AB10D796-262D-E047-BAF9-BCADE08FACF8}" name="ANSWER_2" dataDxfId="48" totalsRowDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{1C7798F8-F517-984B-BB70-5729DD562F57}" name="Your score for Relevance (see above)" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{7B193506-FE5E-B049-A04B-8774CA7AFB0F}" name="id" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{BE0FE50E-449A-5F42-802E-2FD9E011243A}" name="question" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{80EE26CF-0F0B-B945-BB6F-18A3B76D6642}" name="passage" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{AB10D796-262D-E047-BAF9-BCADE08FACF8}" name="ANSWER_2" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{1C7798F8-F517-984B-BB70-5729DD562F57}" name="Your score for Relevance (see above)" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <totalsRowFormula>AVERAGE(Table1345679[Your score for Relevance (see above)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{64B62A21-B8B2-A742-BF25-AB9E4C37146A}" name="Your score for Factual Accuracy (see above)" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="4">
+    <tableColumn id="12" xr3:uid="{64B62A21-B8B2-A742-BF25-AB9E4C37146A}" name="Your score for Factual Accuracy (see above)" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>AVERAGE(Table1345679[Your score for Factual Accuracy (see above)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{FCFB7B12-6C97-C148-B2ED-72CFE7BCFE92}" name="Your score for Conciseness (see above)" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="3">
+    <tableColumn id="13" xr3:uid="{FCFB7B12-6C97-C148-B2ED-72CFE7BCFE92}" name="Your score for Conciseness (see above)" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <totalsRowFormula>AVERAGE(Table1345679[Your score for Conciseness (see above)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{BB4A3CD6-CF65-D145-84ED-293008103097}" name="Your score for Fluency/Readability (see above)" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="2">
+    <tableColumn id="14" xr3:uid="{BB4A3CD6-CF65-D145-84ED-293008103097}" name="Your score for Fluency/Readability (see above)" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>AVERAGE(Table1345679[Your score for Fluency/Readability (see above)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{47E15549-AA1F-6A4F-A374-B44FBF9F25C8}" name="Your score Adherence to Passage (see above)" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="1">
+    <tableColumn id="15" xr3:uid="{47E15549-AA1F-6A4F-A374-B44FBF9F25C8}" name="Your score Adherence to Passage (see above)" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <totalsRowFormula>AVERAGE(Table1345679[Your score Adherence to Passage (see above)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{DDD9E6EC-C905-E24C-A343-845D1C0C59AE}" name="Your score for Completeness (see above)" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="0">
+    <tableColumn id="16" xr3:uid="{DDD9E6EC-C905-E24C-A343-845D1C0C59AE}" name="Your score for Completeness (see above)" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <totalsRowFormula>AVERAGE(Table1345679[Your score for Completeness (see above)])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -5285,29 +5271,29 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{68C1E6E7-F17B-F140-9844-06C5E38E14FA}" name="Table134510" displayName="Table134510" ref="A4:J28" totalsRowCount="1" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{68C1E6E7-F17B-F140-9844-06C5E38E14FA}" name="Table134510" displayName="Table134510" ref="A4:J28" totalsRowCount="1" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A4:J27" xr:uid="{0D9BD064-39D0-3A49-A8F6-DB46CDE5EF9C}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{6C84D4D1-A8B2-2349-AD21-7D1611D57799}" name="id" dataDxfId="39" totalsRowDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{4A3EE4F3-56E1-3D4B-A812-601485C8C297}" name="question" dataDxfId="38" totalsRowDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{4F28B6D7-ED7B-B049-AF4A-7E52D97BA7E8}" name="passage" dataDxfId="37" totalsRowDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{3F8E9EF4-4E37-EF42-B607-E0C77E0EF76B}" name="ANSWER_3" dataDxfId="36" totalsRowDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{D02246D9-968D-0241-A39F-9C49B20BEFBE}" name="Your score for Relevance (see above)" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="15">
+    <tableColumn id="1" xr3:uid="{6C84D4D1-A8B2-2349-AD21-7D1611D57799}" name="id" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{4A3EE4F3-56E1-3D4B-A812-601485C8C297}" name="question" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{4F28B6D7-ED7B-B049-AF4A-7E52D97BA7E8}" name="passage" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{3F8E9EF4-4E37-EF42-B607-E0C77E0EF76B}" name="ANSWER_3" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{D02246D9-968D-0241-A39F-9C49B20BEFBE}" name="Your score for Relevance (see above)" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>AVERAGE(Table134510[Your score for Relevance (see above)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{4656CFEE-9B85-0940-9A12-193F396DDB47}" name="Your score for Factual Accuracy (see above)" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="14">
+    <tableColumn id="12" xr3:uid="{4656CFEE-9B85-0940-9A12-193F396DDB47}" name="Your score for Factual Accuracy (see above)" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>AVERAGE(Table134510[Your score for Factual Accuracy (see above)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1D747F16-E611-3444-AA0F-0EB81E9A1C34}" name="Your score for Conciseness (see above)" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="13">
+    <tableColumn id="13" xr3:uid="{1D747F16-E611-3444-AA0F-0EB81E9A1C34}" name="Your score for Conciseness (see above)" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>AVERAGE(Table134510[Your score for Conciseness (see above)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A942FA33-77C4-0341-8066-DEB6F6EA3502}" name="Your score for Fluency/Readability (see above)" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="12">
+    <tableColumn id="14" xr3:uid="{A942FA33-77C4-0341-8066-DEB6F6EA3502}" name="Your score for Fluency/Readability (see above)" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>AVERAGE(Table134510[Your score for Fluency/Readability (see above)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{2F4258F1-E08A-7B4C-9E90-6E1F81EE39E9}" name="Your score Adherence to Passage (see above)" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="11">
+    <tableColumn id="15" xr3:uid="{2F4258F1-E08A-7B4C-9E90-6E1F81EE39E9}" name="Your score Adherence to Passage (see above)" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>AVERAGE(Table134510[Your score Adherence to Passage (see above)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A7AF440E-6924-0947-91DE-F10E2F07A895}" name="Your score for Completeness (see above)" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="10">
+    <tableColumn id="16" xr3:uid="{A7AF440E-6924-0947-91DE-F10E2F07A895}" name="Your score for Completeness (see above)" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>AVERAGE(Table134510[Your score for Completeness (see above)])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -5752,6 +5738,1068 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E75205A-0B60-F44D-AD0D-BB056FA138CF}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28:J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="57.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="57.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="41" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="88">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="43" thickBot="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="100" customHeight="1" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="255" customHeight="1">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2</v>
+      </c>
+      <c r="I5" s="10">
+        <v>3</v>
+      </c>
+      <c r="J5" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="220">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
+      <c r="H6" s="10">
+        <v>4</v>
+      </c>
+      <c r="I6" s="10">
+        <v>3</v>
+      </c>
+      <c r="J6" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="260">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2</v>
+      </c>
+      <c r="I7" s="10">
+        <v>3</v>
+      </c>
+      <c r="J7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="240">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10">
+        <v>3</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2</v>
+      </c>
+      <c r="H8" s="10">
+        <v>3</v>
+      </c>
+      <c r="I8" s="10">
+        <v>3</v>
+      </c>
+      <c r="J8" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="280">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="10">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10">
+        <v>4</v>
+      </c>
+      <c r="G9" s="10">
+        <v>3</v>
+      </c>
+      <c r="H9" s="10">
+        <v>4</v>
+      </c>
+      <c r="I9" s="10">
+        <v>4</v>
+      </c>
+      <c r="J9" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="200">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="10">
+        <v>4</v>
+      </c>
+      <c r="G10" s="10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="220">
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10">
+        <v>4</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3</v>
+      </c>
+      <c r="H11" s="10">
+        <v>3</v>
+      </c>
+      <c r="I11" s="10">
+        <v>4</v>
+      </c>
+      <c r="J11" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="220">
+      <c r="A12" s="6">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4</v>
+      </c>
+      <c r="F12" s="10">
+        <v>4</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3</v>
+      </c>
+      <c r="H12" s="10">
+        <v>3</v>
+      </c>
+      <c r="I12" s="10">
+        <v>4</v>
+      </c>
+      <c r="J12" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="240">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="10">
+        <v>4</v>
+      </c>
+      <c r="F13" s="10">
+        <v>4</v>
+      </c>
+      <c r="G13" s="10">
+        <v>3</v>
+      </c>
+      <c r="H13" s="10">
+        <v>3</v>
+      </c>
+      <c r="I13" s="10">
+        <v>4</v>
+      </c>
+      <c r="J13" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="300">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10">
+        <v>3</v>
+      </c>
+      <c r="G14" s="10">
+        <v>2</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2</v>
+      </c>
+      <c r="I14" s="10">
+        <v>3</v>
+      </c>
+      <c r="J14" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="220">
+      <c r="A15" s="6">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10">
+        <v>3</v>
+      </c>
+      <c r="G15" s="10">
+        <v>2</v>
+      </c>
+      <c r="H15" s="10">
+        <v>2</v>
+      </c>
+      <c r="I15" s="10">
+        <v>2</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="220">
+      <c r="A16" s="6">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="260">
+      <c r="A17" s="6">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="10">
+        <v>3</v>
+      </c>
+      <c r="F17" s="10">
+        <v>3</v>
+      </c>
+      <c r="G17" s="10">
+        <v>2</v>
+      </c>
+      <c r="H17" s="10">
+        <v>2</v>
+      </c>
+      <c r="I17" s="10">
+        <v>2</v>
+      </c>
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="260">
+      <c r="A18" s="6">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="10">
+        <v>2</v>
+      </c>
+      <c r="F18" s="10">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10">
+        <v>2</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2</v>
+      </c>
+      <c r="I18" s="10">
+        <v>3</v>
+      </c>
+      <c r="J18" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="280">
+      <c r="A19" s="6">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>4</v>
+      </c>
+      <c r="G19" s="10">
+        <v>2</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2</v>
+      </c>
+      <c r="I19" s="10">
+        <v>3</v>
+      </c>
+      <c r="J19" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="220">
+      <c r="A20" s="6">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="10">
+        <v>2</v>
+      </c>
+      <c r="F20" s="10">
+        <v>3</v>
+      </c>
+      <c r="G20" s="10">
+        <v>3</v>
+      </c>
+      <c r="H20" s="10">
+        <v>2</v>
+      </c>
+      <c r="I20" s="10">
+        <v>3</v>
+      </c>
+      <c r="J20" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="240">
+      <c r="A21" s="6">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="10">
+        <v>3</v>
+      </c>
+      <c r="F21" s="10">
+        <v>4</v>
+      </c>
+      <c r="G21" s="10">
+        <v>2</v>
+      </c>
+      <c r="H21" s="10">
+        <v>3</v>
+      </c>
+      <c r="I21" s="10">
+        <v>4</v>
+      </c>
+      <c r="J21" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="200">
+      <c r="A22" s="6">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="10">
+        <v>3</v>
+      </c>
+      <c r="F22" s="10">
+        <v>3</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2</v>
+      </c>
+      <c r="H22" s="10">
+        <v>3</v>
+      </c>
+      <c r="I22" s="10">
+        <v>3</v>
+      </c>
+      <c r="J22" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="180">
+      <c r="A23" s="6">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="10">
+        <v>3</v>
+      </c>
+      <c r="F23" s="10">
+        <v>4</v>
+      </c>
+      <c r="G23" s="10">
+        <v>2</v>
+      </c>
+      <c r="H23" s="10">
+        <v>3</v>
+      </c>
+      <c r="I23" s="10">
+        <v>4</v>
+      </c>
+      <c r="J23" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="180">
+      <c r="A24" s="6">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="10">
+        <v>2</v>
+      </c>
+      <c r="F24" s="10">
+        <v>3</v>
+      </c>
+      <c r="G24" s="10">
+        <v>2</v>
+      </c>
+      <c r="H24" s="10">
+        <v>3</v>
+      </c>
+      <c r="I24" s="10">
+        <v>4</v>
+      </c>
+      <c r="J24" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="160">
+      <c r="A25" s="6">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="10">
+        <v>2</v>
+      </c>
+      <c r="F25" s="10">
+        <v>3</v>
+      </c>
+      <c r="G25" s="10">
+        <v>2</v>
+      </c>
+      <c r="H25" s="10">
+        <v>3</v>
+      </c>
+      <c r="I25" s="10">
+        <v>3</v>
+      </c>
+      <c r="J25" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="240">
+      <c r="A26" s="6">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="10">
+        <v>2</v>
+      </c>
+      <c r="F26" s="10">
+        <v>3</v>
+      </c>
+      <c r="G26" s="10">
+        <v>2</v>
+      </c>
+      <c r="H26" s="10">
+        <v>3</v>
+      </c>
+      <c r="I26" s="10">
+        <v>3</v>
+      </c>
+      <c r="J26" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="220">
+      <c r="A27" s="6">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="10">
+        <v>2</v>
+      </c>
+      <c r="F27" s="10">
+        <v>4</v>
+      </c>
+      <c r="G27" s="10">
+        <v>2</v>
+      </c>
+      <c r="H27" s="10">
+        <v>3</v>
+      </c>
+      <c r="I27" s="10">
+        <v>3</v>
+      </c>
+      <c r="J27" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="62">
+      <c r="D28" s="2"/>
+      <c r="E28" s="10">
+        <f>AVERAGE(Table134510[Your score for Relevance (see above)])</f>
+        <v>2.5652173913043477</v>
+      </c>
+      <c r="F28" s="10">
+        <f>AVERAGE(Table134510[Your score for Factual Accuracy (see above)])</f>
+        <v>3.3043478260869565</v>
+      </c>
+      <c r="G28" s="10">
+        <f>AVERAGE(Table134510[Your score for Conciseness (see above)])</f>
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="H28" s="10">
+        <f>AVERAGE(Table134510[Your score for Fluency/Readability (see above)])</f>
+        <v>2.5652173913043477</v>
+      </c>
+      <c r="I28" s="10">
+        <f>AVERAGE(Table134510[Your score Adherence to Passage (see above)])</f>
+        <v>3.1304347826086958</v>
+      </c>
+      <c r="J28" s="10">
+        <f>AVERAGE(Table134510[Your score for Completeness (see above)])</f>
+        <v>2.0869565217391304</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{861278DD-DA2F-E94D-ADD3-DDE5353B9355}">
+          <x14:formula1>
+            <xm:f>REF!$D$1:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5:J27</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE95BC4B-5228-2345-8166-A4FF25F9F20C}">
+  <dimension ref="B3:E9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="5" width="49.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="27" thickBot="1">
+      <c r="C3" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="90" thickTop="1" thickBot="1">
+      <c r="B4" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="17">
+        <f>AVERAGE(Table134568[Your score for Relevance (see above)])</f>
+        <v>4.1739130434782608</v>
+      </c>
+      <c r="D4" s="17">
+        <f>AVERAGE(Table1345679[Your score for Relevance (see above)])</f>
+        <v>1.6086956521739131</v>
+      </c>
+      <c r="E4" s="17">
+        <f>AVERAGE(Table134510[Your score for Relevance (see above)])</f>
+        <v>2.5652173913043477</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="86" thickTop="1" thickBot="1">
+      <c r="B5" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="17">
+        <f>AVERAGE(Table134568[Your score for Factual Accuracy (see above)])</f>
+        <v>4.5217391304347823</v>
+      </c>
+      <c r="D5" s="17">
+        <f>AVERAGE(Table1345679[Your score for Factual Accuracy (see above)])</f>
+        <v>1.9130434782608696</v>
+      </c>
+      <c r="E5" s="17">
+        <f>AVERAGE(Table134510[Your score for Factual Accuracy (see above)])</f>
+        <v>3.3043478260869565</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="128" thickTop="1" thickBot="1">
+      <c r="B6" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="17">
+        <f>AVERAGE(Table134568[Your score for Conciseness (see above)])</f>
+        <v>4.8695652173913047</v>
+      </c>
+      <c r="D6" s="17">
+        <f>AVERAGE(Table1345679[Your score for Conciseness (see above)])</f>
+        <v>1.2173913043478262</v>
+      </c>
+      <c r="E6" s="17">
+        <f>AVERAGE(Table134510[Your score for Conciseness (see above)])</f>
+        <v>2.1739130434782608</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="107" thickTop="1" thickBot="1">
+      <c r="B7" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="17">
+        <f>AVERAGE(Table134568[Your score for Fluency/Readability (see above)])</f>
+        <v>4.6521739130434785</v>
+      </c>
+      <c r="D7" s="17">
+        <f>AVERAGE(Table1345679[Your score for Fluency/Readability (see above)])</f>
+        <v>1.6521739130434783</v>
+      </c>
+      <c r="E7" s="17">
+        <f>AVERAGE(Table134510[Your score for Fluency/Readability (see above)])</f>
+        <v>2.5652173913043477</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="128" thickTop="1" thickBot="1">
+      <c r="B8" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="17">
+        <f>AVERAGE(Table134568[Your score Adherence to Passage (see above)])</f>
+        <v>4.9565217391304346</v>
+      </c>
+      <c r="D8" s="17">
+        <f>AVERAGE(Table1345679[Your score Adherence to Passage (see above)])</f>
+        <v>1.173913043478261</v>
+      </c>
+      <c r="E8" s="17">
+        <f>AVERAGE(Table134510[Your score Adherence to Passage (see above)])</f>
+        <v>3.1304347826086958</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="128" thickTop="1" thickBot="1">
+      <c r="B9" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="17">
+        <f>AVERAGE(Table134568[Your score for Completeness (see above)])</f>
+        <v>4.0434782608695654</v>
+      </c>
+      <c r="D9" s="17">
+        <f>AVERAGE(Table1345679[Your score for Completeness (see above)])</f>
+        <v>1.0434782608695652</v>
+      </c>
+      <c r="E9" s="17">
+        <f>AVERAGE(Table134510[Your score for Completeness (see above)])</f>
+        <v>2.0869565217391304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1312BF-9036-E248-920D-6D84C0C7561A}">
   <sheetPr>
@@ -5759,11 +6807,11 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -5782,82 +6830,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="44" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="16" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43" customHeight="1" thickBot="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="17" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5880,7 +6928,7 @@
       <c r="F4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>145</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -5889,7 +6937,7 @@
       <c r="I4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5906,22 +6954,22 @@
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5938,22 +6986,22 @@
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5970,22 +7018,22 @@
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6002,22 +7050,22 @@
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6034,22 +7082,22 @@
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6066,22 +7114,22 @@
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="10" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6098,22 +7146,22 @@
       <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6130,22 +7178,22 @@
       <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6162,22 +7210,22 @@
       <c r="D13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6194,22 +7242,22 @@
       <c r="D14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="10" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6226,22 +7274,22 @@
       <c r="D15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6258,22 +7306,22 @@
       <c r="D16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6290,22 +7338,22 @@
       <c r="D17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6322,22 +7370,22 @@
       <c r="D18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6354,22 +7402,22 @@
       <c r="D19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6386,22 +7434,22 @@
       <c r="D20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6418,22 +7466,22 @@
       <c r="D21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="10" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6450,22 +7498,22 @@
       <c r="D22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6482,22 +7530,22 @@
       <c r="D23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6514,22 +7562,22 @@
       <c r="D24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6546,22 +7594,22 @@
       <c r="D25" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="10" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6578,22 +7626,22 @@
       <c r="D26" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6610,33 +7658,33 @@
       <c r="D27" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="62">
       <c r="D28" s="2"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6665,17 +7713,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EF1E7B-E8B4-CD4D-BA2A-8660C3331E4B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E87F0E-B858-2149-B70A-3FB6CACC4EE1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CE1D67-D49D-214E-AB7A-D44DEB141BA8}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -6694,82 +7768,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="44" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="16" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43" customHeight="1" thickBot="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="17" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6783,7 +7857,7 @@
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>120</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -6792,7 +7866,7 @@
       <c r="F4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>145</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -6801,7 +7875,7 @@
       <c r="I4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6818,22 +7892,22 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6850,22 +7924,22 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6882,22 +7956,22 @@
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6914,22 +7988,22 @@
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6946,22 +8020,22 @@
       <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6978,22 +8052,22 @@
       <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7010,22 +8084,22 @@
       <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7042,22 +8116,22 @@
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7074,22 +8148,22 @@
       <c r="D13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7106,22 +8180,22 @@
       <c r="D14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7138,22 +8212,22 @@
       <c r="D15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7170,22 +8244,22 @@
       <c r="D16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7202,22 +8276,22 @@
       <c r="D17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7234,22 +8308,22 @@
       <c r="D18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7266,22 +8340,22 @@
       <c r="D19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7298,22 +8372,22 @@
       <c r="D20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7330,22 +8404,22 @@
       <c r="D21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7362,22 +8436,22 @@
       <c r="D22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7394,22 +8468,22 @@
       <c r="D23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7426,22 +8500,22 @@
       <c r="D24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7458,22 +8532,22 @@
       <c r="D25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7490,22 +8564,22 @@
       <c r="D26" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7522,22 +8596,22 @@
       <c r="D27" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7567,7 +8641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD41444-8601-2E42-A079-A6E0C591CD7C}">
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
@@ -7575,10 +8649,10 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="J26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -7597,82 +8671,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43">
-      <c r="A2" s="10"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="16" t="s">
+    <row r="2" spans="1:10" ht="44">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22" thickBot="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="17" t="s">
+    <row r="3" spans="1:10" ht="43" thickBot="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7686,7 +8760,7 @@
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>118</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -7695,7 +8769,7 @@
       <c r="F4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>145</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -7704,7 +8778,7 @@
       <c r="I4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>148</v>
       </c>
     </row>
@@ -7721,22 +8795,22 @@
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7753,22 +8827,22 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7785,22 +8859,22 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7817,22 +8891,22 @@
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7849,22 +8923,22 @@
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7881,22 +8955,22 @@
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7913,22 +8987,22 @@
       <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="10" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7945,22 +9019,22 @@
       <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="10" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7977,22 +9051,22 @@
       <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8009,22 +9083,22 @@
       <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8041,22 +9115,22 @@
       <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8073,22 +9147,22 @@
       <c r="D16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8105,22 +9179,22 @@
       <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8137,22 +9211,22 @@
       <c r="D18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8169,22 +9243,22 @@
       <c r="D19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8201,22 +9275,22 @@
       <c r="D20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8233,22 +9307,22 @@
       <c r="D21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="10" t="s">
         <v>137</v>
       </c>
     </row>
@@ -8265,22 +9339,22 @@
       <c r="D22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8297,26 +9371,26 @@
       <c r="D23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="200">
+    <row r="24" spans="1:10" ht="180">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -8329,22 +9403,22 @@
       <c r="D24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8361,22 +9435,22 @@
       <c r="D25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8393,22 +9467,22 @@
       <c r="D26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8425,22 +9499,22 @@
       <c r="D27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8470,7 +9544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1A4497-93C7-C94F-B5BB-4F5BA586DF90}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -8517,7 +9591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE30A696-3CA6-6E4A-ABC9-062FC6124361}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -8528,7 +9602,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:J1"/>
+      <selection pane="bottomRight" activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -8547,82 +9621,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="44" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="16" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43" customHeight="1" thickBot="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="17" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>154</v>
       </c>
     </row>
@@ -8645,7 +9719,7 @@
       <c r="F4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>145</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -8654,7 +9728,7 @@
       <c r="I4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>148</v>
       </c>
     </row>
@@ -8671,22 +9745,22 @@
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>5</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>5</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>5</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>5</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <v>4</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8703,22 +9777,22 @@
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>5</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>5</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>5</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="10">
         <v>5</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="10">
         <v>5</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8735,22 +9809,22 @@
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>4</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>5</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <v>5</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <v>5</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="10">
         <v>4</v>
       </c>
     </row>
@@ -8767,22 +9841,22 @@
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>5</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>5</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>5</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <v>5</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="10">
         <v>5</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8799,22 +9873,22 @@
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>5</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>5</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>5</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <v>5</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="10">
         <v>5</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8831,22 +9905,22 @@
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>5</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>5</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>5</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <v>5</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="10">
         <v>5</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <v>4</v>
       </c>
     </row>
@@ -8863,22 +9937,22 @@
       <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>5</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <v>5</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="10">
         <v>5</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8895,22 +9969,22 @@
       <c r="D12" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>5</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>5</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>5</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="10">
         <v>5</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="10">
         <v>5</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8927,22 +10001,22 @@
       <c r="D13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <v>2</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>5</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>5</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <v>5</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="10">
         <v>5</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="10">
         <v>2</v>
       </c>
     </row>
@@ -8959,22 +10033,22 @@
       <c r="D14" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <v>4</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>4</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>5</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="10">
         <v>5</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="10">
         <v>5</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="10">
         <v>4</v>
       </c>
     </row>
@@ -8991,22 +10065,22 @@
       <c r="D15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>5</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <v>5</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>5</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="10">
         <v>5</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="10">
         <v>5</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="10">
         <v>5</v>
       </c>
     </row>
@@ -9023,26 +10097,26 @@
       <c r="D16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <v>2</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>4</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>5</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="10">
         <v>5</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="10">
         <v>5</v>
       </c>
-      <c r="J16" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="260">
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="240">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -9055,22 +10129,22 @@
       <c r="D17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <v>5</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <v>5</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>5</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="10">
         <v>5</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="10">
         <v>5</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="10">
         <v>5</v>
       </c>
     </row>
@@ -9087,22 +10161,22 @@
       <c r="D18" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>3</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <v>3</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>5</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="10">
         <v>5</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="10">
         <v>5</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="10">
         <v>2</v>
       </c>
     </row>
@@ -9119,22 +10193,22 @@
       <c r="D19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <v>5</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="10">
         <v>5</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="10">
         <v>5</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="10">
         <v>5</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="10">
         <v>5</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="10">
         <v>5</v>
       </c>
     </row>
@@ -9151,22 +10225,22 @@
       <c r="D20" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <v>2</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <v>5</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <v>5</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="10">
         <v>5</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="10">
         <v>5</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="10">
         <v>2</v>
       </c>
     </row>
@@ -9183,22 +10257,22 @@
       <c r="D21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>4</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <v>4</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="10">
         <v>5</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="10">
         <v>2</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="10">
         <v>5</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="10">
         <v>4</v>
       </c>
     </row>
@@ -9215,22 +10289,22 @@
       <c r="D22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <v>5</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="10">
         <v>5</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="10">
         <v>5</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="10">
         <v>4</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="10">
         <v>5</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="10">
         <v>5</v>
       </c>
     </row>
@@ -9247,22 +10321,22 @@
       <c r="D23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
         <v>5</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="10">
         <v>5</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="10">
         <v>5</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="10">
         <v>5</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="10">
         <v>5</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="10">
         <v>5</v>
       </c>
     </row>
@@ -9279,22 +10353,22 @@
       <c r="D24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
         <v>2</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="10">
         <v>2</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="10">
         <v>2</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="10">
         <v>2</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="10">
         <v>5</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="10">
         <v>1</v>
       </c>
     </row>
@@ -9311,22 +10385,22 @@
       <c r="D25" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
         <v>3</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="10">
         <v>4</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="10">
         <v>5</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="10">
         <v>5</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="10">
         <v>5</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="10">
         <v>4</v>
       </c>
     </row>
@@ -9343,22 +10417,22 @@
       <c r="D26" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <v>5</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="10">
         <v>5</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="10">
         <v>5</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="10">
         <v>5</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="10">
         <v>5</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="10">
         <v>5</v>
       </c>
     </row>
@@ -9375,48 +10449,48 @@
       <c r="D27" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
         <v>5</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="10">
         <v>5</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="10">
         <v>5</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="10">
         <v>4</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="10">
         <v>5</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="62">
       <c r="D28" s="2"/>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <f>AVERAGE(Table134568[Your score for Relevance (see above)])</f>
         <v>4.1739130434782608</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="10">
         <f>AVERAGE(Table134568[Your score for Factual Accuracy (see above)])</f>
         <v>4.5217391304347823</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="10">
         <f>AVERAGE(Table134568[Your score for Conciseness (see above)])</f>
         <v>4.8695652173913047</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="10">
         <f>AVERAGE(Table134568[Your score for Fluency/Readability (see above)])</f>
         <v>4.6521739130434785</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="10">
         <f>AVERAGE(Table134568[Your score Adherence to Passage (see above)])</f>
         <v>4.9565217391304346</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="10">
         <f>AVERAGE(Table134568[Your score for Completeness (see above)])</f>
         <v>4.0434782608695654</v>
       </c>
@@ -9448,7 +10522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B17B2B6-8439-E24A-8C8B-3A02A43AE552}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -9478,82 +10552,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="44" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="16" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43" customHeight="1" thickBot="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="17" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9567,7 +10641,7 @@
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>120</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -9576,7 +10650,7 @@
       <c r="F4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>145</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -9585,7 +10659,7 @@
       <c r="I4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>148</v>
       </c>
     </row>
@@ -9602,22 +10676,22 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
         <v>2</v>
       </c>
-      <c r="G5" s="12">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="12">
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
         <v>2</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <v>1</v>
       </c>
     </row>
@@ -9634,22 +10708,22 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12">
-        <v>1</v>
-      </c>
-      <c r="J6" s="12">
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10">
         <v>1</v>
       </c>
     </row>
@@ -9666,22 +10740,22 @@
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>3</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>3</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>2</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <v>2</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <v>3</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="10">
         <v>1</v>
       </c>
     </row>
@@ -9698,22 +10772,22 @@
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>3</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>4</v>
       </c>
-      <c r="G8" s="12">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10">
         <v>4</v>
       </c>
-      <c r="I8" s="12">
-        <v>1</v>
-      </c>
-      <c r="J8" s="12">
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10">
         <v>1</v>
       </c>
     </row>
@@ -9730,22 +10804,22 @@
       <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>2</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="12">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12">
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10">
         <v>1</v>
       </c>
     </row>
@@ -9762,22 +10836,22 @@
       <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="12">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
         <v>2</v>
       </c>
-      <c r="I10" s="12">
-        <v>1</v>
-      </c>
-      <c r="J10" s="12">
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10">
         <v>1</v>
       </c>
     </row>
@@ -9794,22 +10868,22 @@
       <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="12">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12">
-        <v>1</v>
-      </c>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12">
-        <v>1</v>
-      </c>
-      <c r="J11" s="12">
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10">
         <v>1</v>
       </c>
     </row>
@@ -9826,22 +10900,22 @@
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
         <v>2</v>
       </c>
-      <c r="G12" s="12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10">
         <v>1</v>
       </c>
     </row>
@@ -9858,22 +10932,22 @@
       <c r="D13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="12">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12">
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
         <v>3</v>
       </c>
-      <c r="G13" s="12">
-        <v>1</v>
-      </c>
-      <c r="H13" s="12">
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10">
         <v>3</v>
       </c>
-      <c r="I13" s="12">
-        <v>1</v>
-      </c>
-      <c r="J13" s="12">
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10">
         <v>1</v>
       </c>
     </row>
@@ -9890,22 +10964,22 @@
       <c r="D14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="12">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10">
         <v>3</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>2</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="10">
         <v>3</v>
       </c>
-      <c r="I14" s="12">
-        <v>1</v>
-      </c>
-      <c r="J14" s="12">
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10">
         <v>1</v>
       </c>
     </row>
@@ -9922,22 +10996,22 @@
       <c r="D15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>2</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <v>3</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>2</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="10">
         <v>2</v>
       </c>
-      <c r="I15" s="12">
-        <v>1</v>
-      </c>
-      <c r="J15" s="12">
+      <c r="I15" s="10">
+        <v>1</v>
+      </c>
+      <c r="J15" s="10">
         <v>1</v>
       </c>
     </row>
@@ -9954,26 +11028,26 @@
       <c r="D16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="12">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12">
-        <v>1</v>
-      </c>
-      <c r="G16" s="12">
-        <v>1</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12">
-        <v>1</v>
-      </c>
-      <c r="J16" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="260">
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="240">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -9986,22 +11060,22 @@
       <c r="D17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="12">
-        <v>1</v>
-      </c>
-      <c r="F17" s="12">
-        <v>1</v>
-      </c>
-      <c r="G17" s="12">
-        <v>1</v>
-      </c>
-      <c r="H17" s="12">
-        <v>1</v>
-      </c>
-      <c r="I17" s="12">
-        <v>1</v>
-      </c>
-      <c r="J17" s="12">
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10">
         <v>1</v>
       </c>
     </row>
@@ -10018,22 +11092,22 @@
       <c r="D18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="12">
-        <v>1</v>
-      </c>
-      <c r="F18" s="12">
-        <v>1</v>
-      </c>
-      <c r="G18" s="12">
-        <v>1</v>
-      </c>
-      <c r="H18" s="12">
-        <v>1</v>
-      </c>
-      <c r="I18" s="12">
-        <v>1</v>
-      </c>
-      <c r="J18" s="12">
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10">
         <v>1</v>
       </c>
     </row>
@@ -10050,22 +11124,22 @@
       <c r="D19" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="12">
-        <v>1</v>
-      </c>
-      <c r="F19" s="12">
-        <v>1</v>
-      </c>
-      <c r="G19" s="12">
-        <v>1</v>
-      </c>
-      <c r="H19" s="12">
-        <v>1</v>
-      </c>
-      <c r="I19" s="12">
-        <v>1</v>
-      </c>
-      <c r="J19" s="12">
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10">
         <v>1</v>
       </c>
     </row>
@@ -10082,22 +11156,22 @@
       <c r="D20" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="12">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12">
-        <v>1</v>
-      </c>
-      <c r="G20" s="12">
-        <v>1</v>
-      </c>
-      <c r="H20" s="12">
-        <v>1</v>
-      </c>
-      <c r="I20" s="12">
-        <v>1</v>
-      </c>
-      <c r="J20" s="12">
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10">
         <v>1</v>
       </c>
     </row>
@@ -10114,22 +11188,22 @@
       <c r="D21" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>2</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <v>3</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="10">
         <v>2</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="10">
         <v>2</v>
       </c>
-      <c r="I21" s="12">
-        <v>1</v>
-      </c>
-      <c r="J21" s="12">
+      <c r="I21" s="10">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10">
         <v>1</v>
       </c>
     </row>
@@ -10146,22 +11220,22 @@
       <c r="D22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <v>3</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="10">
         <v>3</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="10">
         <v>2</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="10">
         <v>2</v>
       </c>
-      <c r="I22" s="12">
-        <v>1</v>
-      </c>
-      <c r="J22" s="12">
+      <c r="I22" s="10">
+        <v>1</v>
+      </c>
+      <c r="J22" s="10">
         <v>1</v>
       </c>
     </row>
@@ -10178,22 +11252,22 @@
       <c r="D23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
         <v>2</v>
       </c>
-      <c r="F23" s="12">
-        <v>1</v>
-      </c>
-      <c r="G23" s="12">
-        <v>1</v>
-      </c>
-      <c r="H23" s="12">
-        <v>1</v>
-      </c>
-      <c r="I23" s="12">
-        <v>1</v>
-      </c>
-      <c r="J23" s="12">
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10">
+        <v>1</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10">
         <v>1</v>
       </c>
     </row>
@@ -10210,22 +11284,22 @@
       <c r="D24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
         <v>2</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="10">
         <v>2</v>
       </c>
-      <c r="G24" s="12">
-        <v>1</v>
-      </c>
-      <c r="H24" s="12">
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10">
         <v>2</v>
       </c>
-      <c r="I24" s="12">
-        <v>1</v>
-      </c>
-      <c r="J24" s="12">
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10">
         <v>1</v>
       </c>
     </row>
@@ -10242,22 +11316,22 @@
       <c r="D25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
         <v>2</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="10">
         <v>2</v>
       </c>
-      <c r="G25" s="12">
-        <v>1</v>
-      </c>
-      <c r="H25" s="12">
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10">
         <v>2</v>
       </c>
-      <c r="I25" s="12">
-        <v>1</v>
-      </c>
-      <c r="J25" s="12">
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10">
         <v>1</v>
       </c>
     </row>
@@ -10274,22 +11348,22 @@
       <c r="D26" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <v>2</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="10">
         <v>2</v>
       </c>
-      <c r="G26" s="12">
-        <v>1</v>
-      </c>
-      <c r="H26" s="12">
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
         <v>2</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="10">
         <v>2</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="10">
         <v>2</v>
       </c>
     </row>
@@ -10306,48 +11380,48 @@
       <c r="D27" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
         <v>2</v>
       </c>
-      <c r="F27" s="12">
-        <v>1</v>
-      </c>
-      <c r="G27" s="12">
-        <v>1</v>
-      </c>
-      <c r="H27" s="12">
-        <v>1</v>
-      </c>
-      <c r="I27" s="12">
-        <v>1</v>
-      </c>
-      <c r="J27" s="12">
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
+      <c r="J27" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="51" customHeight="1">
       <c r="D28" s="2"/>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <f>AVERAGE(Table1345679[Your score for Relevance (see above)])</f>
         <v>1.6086956521739131</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="10">
         <f>AVERAGE(Table1345679[Your score for Factual Accuracy (see above)])</f>
         <v>1.9130434782608696</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="10">
         <f>AVERAGE(Table1345679[Your score for Conciseness (see above)])</f>
         <v>1.2173913043478262</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="10">
         <f>AVERAGE(Table1345679[Your score for Fluency/Readability (see above)])</f>
         <v>1.6521739130434783</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="10">
         <f>AVERAGE(Table1345679[Your score Adherence to Passage (see above)])</f>
         <v>1.173913043478261</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="10">
         <f>AVERAGE(Table1345679[Your score for Completeness (see above)])</f>
         <v>1.0434782608695652</v>
       </c>
@@ -10376,1066 +11450,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E75205A-0B60-F44D-AD0D-BB056FA138CF}">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:J28"/>
-  <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28:J28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
-    <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51" style="1" customWidth="1"/>
-    <col min="8" max="8" width="55.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="57.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="57.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="41" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="44">
-      <c r="A2" s="10"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="43" thickBot="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="100" customHeight="1" thickBot="1">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="255" customHeight="1">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2</v>
-      </c>
-      <c r="F5" s="12">
-        <v>3</v>
-      </c>
-      <c r="G5" s="12">
-        <v>2</v>
-      </c>
-      <c r="H5" s="12">
-        <v>2</v>
-      </c>
-      <c r="I5" s="12">
-        <v>3</v>
-      </c>
-      <c r="J5" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="220">
-      <c r="A6" s="6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="12">
-        <v>2</v>
-      </c>
-      <c r="F6" s="12">
-        <v>3</v>
-      </c>
-      <c r="G6" s="12">
-        <v>2</v>
-      </c>
-      <c r="H6" s="12">
-        <v>4</v>
-      </c>
-      <c r="I6" s="12">
-        <v>3</v>
-      </c>
-      <c r="J6" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="260">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="12">
-        <v>2</v>
-      </c>
-      <c r="F7" s="12">
-        <v>3</v>
-      </c>
-      <c r="G7" s="12">
-        <v>2</v>
-      </c>
-      <c r="H7" s="12">
-        <v>2</v>
-      </c>
-      <c r="I7" s="12">
-        <v>3</v>
-      </c>
-      <c r="J7" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="240">
-      <c r="A8" s="6">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="12">
-        <v>3</v>
-      </c>
-      <c r="F8" s="12">
-        <v>3</v>
-      </c>
-      <c r="G8" s="12">
-        <v>2</v>
-      </c>
-      <c r="H8" s="12">
-        <v>3</v>
-      </c>
-      <c r="I8" s="12">
-        <v>3</v>
-      </c>
-      <c r="J8" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="280">
-      <c r="A9" s="6">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="12">
-        <v>4</v>
-      </c>
-      <c r="F9" s="12">
-        <v>4</v>
-      </c>
-      <c r="G9" s="12">
-        <v>3</v>
-      </c>
-      <c r="H9" s="12">
-        <v>4</v>
-      </c>
-      <c r="I9" s="12">
-        <v>4</v>
-      </c>
-      <c r="J9" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="200">
-      <c r="A10" s="6">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="12">
-        <v>3</v>
-      </c>
-      <c r="F10" s="12">
-        <v>4</v>
-      </c>
-      <c r="G10" s="12">
-        <v>2</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12">
-        <v>3</v>
-      </c>
-      <c r="J10" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="220">
-      <c r="A11" s="6">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="12">
-        <v>3</v>
-      </c>
-      <c r="F11" s="12">
-        <v>4</v>
-      </c>
-      <c r="G11" s="12">
-        <v>3</v>
-      </c>
-      <c r="H11" s="12">
-        <v>3</v>
-      </c>
-      <c r="I11" s="12">
-        <v>4</v>
-      </c>
-      <c r="J11" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="220">
-      <c r="A12" s="6">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="12">
-        <v>4</v>
-      </c>
-      <c r="F12" s="12">
-        <v>4</v>
-      </c>
-      <c r="G12" s="12">
-        <v>3</v>
-      </c>
-      <c r="H12" s="12">
-        <v>3</v>
-      </c>
-      <c r="I12" s="12">
-        <v>4</v>
-      </c>
-      <c r="J12" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="240">
-      <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="12">
-        <v>4</v>
-      </c>
-      <c r="F13" s="12">
-        <v>4</v>
-      </c>
-      <c r="G13" s="12">
-        <v>3</v>
-      </c>
-      <c r="H13" s="12">
-        <v>3</v>
-      </c>
-      <c r="I13" s="12">
-        <v>4</v>
-      </c>
-      <c r="J13" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="300">
-      <c r="A14" s="6">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="12">
-        <v>3</v>
-      </c>
-      <c r="F14" s="12">
-        <v>3</v>
-      </c>
-      <c r="G14" s="12">
-        <v>2</v>
-      </c>
-      <c r="H14" s="12">
-        <v>2</v>
-      </c>
-      <c r="I14" s="12">
-        <v>3</v>
-      </c>
-      <c r="J14" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="220">
-      <c r="A15" s="6">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="12">
-        <v>2</v>
-      </c>
-      <c r="F15" s="12">
-        <v>3</v>
-      </c>
-      <c r="G15" s="12">
-        <v>2</v>
-      </c>
-      <c r="H15" s="12">
-        <v>2</v>
-      </c>
-      <c r="I15" s="12">
-        <v>2</v>
-      </c>
-      <c r="J15" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="220">
-      <c r="A16" s="6">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12">
-        <v>1</v>
-      </c>
-      <c r="G16" s="12">
-        <v>1</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12">
-        <v>1</v>
-      </c>
-      <c r="J16" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="260">
-      <c r="A17" s="6">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="12">
-        <v>3</v>
-      </c>
-      <c r="F17" s="12">
-        <v>3</v>
-      </c>
-      <c r="G17" s="12">
-        <v>2</v>
-      </c>
-      <c r="H17" s="12">
-        <v>2</v>
-      </c>
-      <c r="I17" s="12">
-        <v>2</v>
-      </c>
-      <c r="J17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="260">
-      <c r="A18" s="6">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="12">
-        <v>2</v>
-      </c>
-      <c r="F18" s="12">
-        <v>3</v>
-      </c>
-      <c r="G18" s="12">
-        <v>2</v>
-      </c>
-      <c r="H18" s="12">
-        <v>2</v>
-      </c>
-      <c r="I18" s="12">
-        <v>3</v>
-      </c>
-      <c r="J18" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="280">
-      <c r="A19" s="6">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="12">
-        <v>2</v>
-      </c>
-      <c r="F19" s="12">
-        <v>4</v>
-      </c>
-      <c r="G19" s="12">
-        <v>2</v>
-      </c>
-      <c r="H19" s="12">
-        <v>2</v>
-      </c>
-      <c r="I19" s="12">
-        <v>3</v>
-      </c>
-      <c r="J19" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="220">
-      <c r="A20" s="6">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="12">
-        <v>2</v>
-      </c>
-      <c r="F20" s="12">
-        <v>3</v>
-      </c>
-      <c r="G20" s="12">
-        <v>3</v>
-      </c>
-      <c r="H20" s="12">
-        <v>2</v>
-      </c>
-      <c r="I20" s="12">
-        <v>3</v>
-      </c>
-      <c r="J20" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="240">
-      <c r="A21" s="6">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="12">
-        <v>3</v>
-      </c>
-      <c r="F21" s="12">
-        <v>4</v>
-      </c>
-      <c r="G21" s="12">
-        <v>2</v>
-      </c>
-      <c r="H21" s="12">
-        <v>3</v>
-      </c>
-      <c r="I21" s="12">
-        <v>4</v>
-      </c>
-      <c r="J21" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="200">
-      <c r="A22" s="6">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="12">
-        <v>3</v>
-      </c>
-      <c r="F22" s="12">
-        <v>3</v>
-      </c>
-      <c r="G22" s="12">
-        <v>2</v>
-      </c>
-      <c r="H22" s="12">
-        <v>3</v>
-      </c>
-      <c r="I22" s="12">
-        <v>3</v>
-      </c>
-      <c r="J22" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="180">
-      <c r="A23" s="6">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="12">
-        <v>3</v>
-      </c>
-      <c r="F23" s="12">
-        <v>4</v>
-      </c>
-      <c r="G23" s="12">
-        <v>2</v>
-      </c>
-      <c r="H23" s="12">
-        <v>3</v>
-      </c>
-      <c r="I23" s="12">
-        <v>4</v>
-      </c>
-      <c r="J23" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="200">
-      <c r="A24" s="6">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="12">
-        <v>2</v>
-      </c>
-      <c r="F24" s="12">
-        <v>3</v>
-      </c>
-      <c r="G24" s="12">
-        <v>2</v>
-      </c>
-      <c r="H24" s="12">
-        <v>3</v>
-      </c>
-      <c r="I24" s="12">
-        <v>4</v>
-      </c>
-      <c r="J24" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="160">
-      <c r="A25" s="6">
-        <v>21</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="12">
-        <v>2</v>
-      </c>
-      <c r="F25" s="12">
-        <v>3</v>
-      </c>
-      <c r="G25" s="12">
-        <v>2</v>
-      </c>
-      <c r="H25" s="12">
-        <v>3</v>
-      </c>
-      <c r="I25" s="12">
-        <v>3</v>
-      </c>
-      <c r="J25" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="240">
-      <c r="A26" s="6">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="12">
-        <v>2</v>
-      </c>
-      <c r="F26" s="12">
-        <v>3</v>
-      </c>
-      <c r="G26" s="12">
-        <v>2</v>
-      </c>
-      <c r="H26" s="12">
-        <v>3</v>
-      </c>
-      <c r="I26" s="12">
-        <v>3</v>
-      </c>
-      <c r="J26" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="240">
-      <c r="A27" s="6">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="12">
-        <v>2</v>
-      </c>
-      <c r="F27" s="12">
-        <v>4</v>
-      </c>
-      <c r="G27" s="12">
-        <v>2</v>
-      </c>
-      <c r="H27" s="12">
-        <v>3</v>
-      </c>
-      <c r="I27" s="12">
-        <v>3</v>
-      </c>
-      <c r="J27" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="62">
-      <c r="D28" s="2"/>
-      <c r="E28" s="12">
-        <f>AVERAGE(Table134510[Your score for Relevance (see above)])</f>
-        <v>2.5652173913043477</v>
-      </c>
-      <c r="F28" s="12">
-        <f>AVERAGE(Table134510[Your score for Factual Accuracy (see above)])</f>
-        <v>3.3043478260869565</v>
-      </c>
-      <c r="G28" s="12">
-        <f>AVERAGE(Table134510[Your score for Conciseness (see above)])</f>
-        <v>2.1739130434782608</v>
-      </c>
-      <c r="H28" s="12">
-        <f>AVERAGE(Table134510[Your score for Fluency/Readability (see above)])</f>
-        <v>2.5652173913043477</v>
-      </c>
-      <c r="I28" s="12">
-        <f>AVERAGE(Table134510[Your score Adherence to Passage (see above)])</f>
-        <v>3.1304347826086958</v>
-      </c>
-      <c r="J28" s="12">
-        <f>AVERAGE(Table134510[Your score for Completeness (see above)])</f>
-        <v>2.0869565217391304</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{861278DD-DA2F-E94D-ADD3-DDE5353B9355}">
-          <x14:formula1>
-            <xm:f>REF!$D$1:$D$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>E5:J27</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE95BC4B-5228-2345-8166-A4FF25F9F20C}">
-  <dimension ref="B3:E9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="5" width="49.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5" ht="27" thickBot="1">
-      <c r="C3" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="90" thickTop="1" thickBot="1">
-      <c r="B4" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="22">
-        <f>AVERAGE(Table134568[Your score for Relevance (see above)])</f>
-        <v>4.1739130434782608</v>
-      </c>
-      <c r="D4" s="22">
-        <f>AVERAGE(Table1345679[Your score for Relevance (see above)])</f>
-        <v>1.6086956521739131</v>
-      </c>
-      <c r="E4" s="22">
-        <f>AVERAGE(Table134510[Your score for Relevance (see above)])</f>
-        <v>2.5652173913043477</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="86" thickTop="1" thickBot="1">
-      <c r="B5" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="22">
-        <f>AVERAGE(Table134568[Your score for Factual Accuracy (see above)])</f>
-        <v>4.5217391304347823</v>
-      </c>
-      <c r="D5" s="22">
-        <f>AVERAGE(Table1345679[Your score for Factual Accuracy (see above)])</f>
-        <v>1.9130434782608696</v>
-      </c>
-      <c r="E5" s="22">
-        <f>AVERAGE(Table134510[Your score for Factual Accuracy (see above)])</f>
-        <v>3.3043478260869565</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="128" thickTop="1" thickBot="1">
-      <c r="B6" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="22">
-        <f>AVERAGE(Table134568[Your score for Conciseness (see above)])</f>
-        <v>4.8695652173913047</v>
-      </c>
-      <c r="D6" s="22">
-        <f>AVERAGE(Table1345679[Your score for Conciseness (see above)])</f>
-        <v>1.2173913043478262</v>
-      </c>
-      <c r="E6" s="22">
-        <f>AVERAGE(Table134510[Your score for Conciseness (see above)])</f>
-        <v>2.1739130434782608</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="107" thickTop="1" thickBot="1">
-      <c r="B7" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="22">
-        <f>AVERAGE(Table134568[Your score for Fluency/Readability (see above)])</f>
-        <v>4.6521739130434785</v>
-      </c>
-      <c r="D7" s="22">
-        <f>AVERAGE(Table1345679[Your score for Fluency/Readability (see above)])</f>
-        <v>1.6521739130434783</v>
-      </c>
-      <c r="E7" s="22">
-        <f>AVERAGE(Table134510[Your score for Fluency/Readability (see above)])</f>
-        <v>2.5652173913043477</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="128" thickTop="1" thickBot="1">
-      <c r="B8" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="22">
-        <f>AVERAGE(Table134568[Your score Adherence to Passage (see above)])</f>
-        <v>4.9565217391304346</v>
-      </c>
-      <c r="D8" s="22">
-        <f>AVERAGE(Table1345679[Your score Adherence to Passage (see above)])</f>
-        <v>1.173913043478261</v>
-      </c>
-      <c r="E8" s="22">
-        <f>AVERAGE(Table134510[Your score Adherence to Passage (see above)])</f>
-        <v>3.1304347826086958</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="149" thickTop="1" thickBot="1">
-      <c r="B9" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="22">
-        <f>AVERAGE(Table134568[Your score for Completeness (see above)])</f>
-        <v>4.0434782608695654</v>
-      </c>
-      <c r="D9" s="22">
-        <f>AVERAGE(Table1345679[Your score for Completeness (see above)])</f>
-        <v>1.0434782608695652</v>
-      </c>
-      <c r="E9" s="22">
-        <f>AVERAGE(Table134510[Your score for Completeness (see above)])</f>
-        <v>2.0869565217391304</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>